--- a/Unity/Assets/Config/Excel/Datas/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__beans__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/Excel/Datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6149C3F7-1C21-D948-BA13-953F90C4E5EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3613B9BC-1B77-48F4-B830-EC42E45A8F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="18880" windowWidth="21420" windowHeight="9760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,7 +214,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
@@ -497,22 +497,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="5" width="12.1640625" customWidth="1"/>
+    <col min="2" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="7" width="15" customWidth="1"/>
     <col min="8" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +542,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -585,7 +585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
@@ -599,7 +599,7 @@
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
@@ -614,7 +614,7 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
@@ -628,7 +628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
@@ -642,10 +642,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="13" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -657,7 +684,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -669,30 +696,6 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:12">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/Unity/Assets/Config/Excel/Datas/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__beans__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3613B9BC-1B77-48F4-B830-EC42E45A8F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62032E65-3900-4DFB-8979-B6AAC48357EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -648,6 +648,10 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
